--- a/python-email/dados/dados.xlsx
+++ b/python-email/dados/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\python-email\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\Automation-Python\python-email\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A79F34-146A-4C27-B0CF-3BD19E8EDFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A110B-5E69-42C0-A010-F03F7D9C629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1350" windowWidth="16200" windowHeight="9360" xr2:uid="{546421D2-C81E-4DCD-B4C3-B8B57E72DF37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{546421D2-C81E-4DCD-B4C3-B8B57E72DF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
     <t>OPA</t>
   </si>
   <si>
-    <t>teste,eu,sou,o,jonas</t>
+    <t>teste,eu,sou,o,jonas,silva</t>
   </si>
 </sst>
 </file>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53DC9EE-1E55-44F3-8743-6EFCFAD2595E}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +461,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/python-email/dados/dados.xlsx
+++ b/python-email/dados/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\Automation-Python\python-email\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A110B-5E69-42C0-A010-F03F7D9C629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5C9C6-1A8F-44F5-A069-172DD25E6CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{546421D2-C81E-4DCD-B4C3-B8B57E72DF37}"/>
+    <workbookView xWindow="2280" yWindow="1695" windowWidth="16200" windowHeight="9360" xr2:uid="{546421D2-C81E-4DCD-B4C3-B8B57E72DF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>OPA</t>
   </si>
   <si>
-    <t>teste,eu,sou,o,jonas,silva</t>
+    <t>teste,eu,sou,o,jonas,silva;teste;teste;aeeeo;acabouaqui</t>
   </si>
 </sst>
 </file>

--- a/python-email/dados/dados.xlsx
+++ b/python-email/dados/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\Automation-Python\python-email\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5C9C6-1A8F-44F5-A069-172DD25E6CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187DD164-D353-44A6-925F-D9A2E315CF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1695" windowWidth="16200" windowHeight="9360" xr2:uid="{546421D2-C81E-4DCD-B4C3-B8B57E72DF37}"/>
+    <workbookView xWindow="24060" yWindow="1425" windowWidth="16200" windowHeight="9360" xr2:uid="{546421D2-C81E-4DCD-B4C3-B8B57E72DF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>OPA</t>
   </si>
   <si>
-    <t>teste,eu,sou,o,jonas,silva;teste;teste;aeeeo;acabouaqui</t>
+    <t>teste,eu,sou,o,jonas,silva;teste;teste;aeeeo;acabouaqui;acaba</t>
   </si>
 </sst>
 </file>
